--- a/stockb/Companies.xlsx
+++ b/stockb/Companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Stockrp\stocka\stockb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BB901A-7A48-4349-8EC1-399A2D41E60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2AFF5F-D488-45BB-97C8-8A61BE8223A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40227,7 +40227,7 @@
   <dimension ref="A1:D2004"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1994" workbookViewId="0">
-      <selection activeCell="B2004" sqref="B2004"/>
+      <selection activeCell="A2003" sqref="A2003:B2003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
